--- a/Classifier3/Forrest_StatsImportanceTotal.xlsx
+++ b/Classifier3/Forrest_StatsImportanceTotal.xlsx
@@ -9,6 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hypertensive disease " sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vertigo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pain" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DrugFamily" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,4 +639,272 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estimators</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7203994293865906</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.721634819186748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7217975493155379</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7203943084136493</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weighted</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9161931818181819</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9308823529411765</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8654646324549237</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8656819984139572</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8655518394648829</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7824858757062146</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7817910255998458</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7811138169700077</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.781395609947791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estimators</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weighted</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9529914529914529</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9476190476190476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9488956502141087</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>